--- a/spliced/falling/2023-03-25_18-01-10/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-10/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.061391957104206</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.008399397134780801</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.1032362282276153</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.090866208076477</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-01-10/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-10/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0251981914043426</v>
+        <v>-0.0091629782691597</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0175623763352632</v>
+        <v>0.008399397134780801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0310014113783836</v>
+        <v>-0.0251981914043426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0426078513264656</v>
+        <v>0.040775254368782</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.042302418500185</v>
+        <v>0.0474947728216648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06704246252775189</v>
+        <v>-0.0180205255746841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0807869285345077</v>
+        <v>0.008399397134780801</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.06704246252775189</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0733038261532783</v>
+        <v>-0.0125227374956011</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0183259565383195</v>
+        <v>0.0181732401251792</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1901318132877349</v>
+        <v>0.011148290708661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0618501044809818</v>
+        <v>0.0201585534960031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0526871271431446</v>
+        <v>-0.0290160998702049</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.3115412890911102</v>
+        <v>-0.0050396383740007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0861319974064827</v>
+        <v>0.0441350154578685</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.057115901261568</v>
+        <v>0.0397062413394451</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2079996168613433</v>
+        <v>-0.0019853119738399</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1476766765117645</v>
+        <v>0.0597120784223079</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0540615729987621</v>
+        <v>0.0830776765942573</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0456621758639812</v>
+        <v>-0.0916297882795333</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3489567637443542</v>
+        <v>0.06856962293386459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0517708286643028</v>
+        <v>0.0453567430377006</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1207986027002334</v>
+        <v>-0.0123700210824608</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4889976382255554</v>
+        <v>0.0334448739886283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9677632451057434</v>
+        <v>0.0251981914043426</v>
       </c>
       <c r="B10" t="n">
-        <v>1.55587375164032</v>
+        <v>0.0175623763352632</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.213317394256592</v>
+        <v>0.0310014113783836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.3923282027244568</v>
+        <v>0.0426078513264656</v>
       </c>
       <c r="B11" t="n">
-        <v>1.798387289047241</v>
+        <v>-0.042302418500185</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.971720337867737</v>
+        <v>0.06704246252775189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.612850546836853</v>
+        <v>-0.0807869285345077</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.971374034881592</v>
+        <v>-0.06704246252775189</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.526399493217468</v>
+        <v>-0.0733038261532783</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1269072592258453</v>
+        <v>-0.0183259565383195</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4891503453254699</v>
+        <v>-0.1901318132877349</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1519527286291122</v>
+        <v>0.0618501044809818</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0516181141138076</v>
+        <v>-0.0526871271431446</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4092797040939331</v>
+        <v>-0.3115412890911102</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1918116807937622</v>
+        <v>0.0861319974064827</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0490219369530677</v>
+        <v>-0.057115901261568</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1739438772201538</v>
+        <v>-0.2079996168613433</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2171625941991806</v>
+        <v>-0.1476766765117645</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0340557359158992</v>
+        <v>-0.0540615729987621</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.152105450630188</v>
+        <v>0.0456621758639812</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2504547536373138</v>
+        <v>-0.3489567637443542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.016951510682702</v>
+        <v>0.0517708286643028</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2273945808410644</v>
+        <v>0.1207986027002334</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3982841372489929</v>
+        <v>-0.4889976382255554</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0387899428606033</v>
+        <v>0.9677632451057434</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.08124507963657369</v>
+        <v>1.55587375164032</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1327104717493057</v>
+        <v>-2.213317394256592</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0487165041267871</v>
+        <v>-0.3923282027244568</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0951422601938247</v>
+        <v>1.798387289047241</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1156062483787536</v>
+        <v>-1.971720337867737</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0276416521519422</v>
+        <v>-0.612850546836853</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0578794814646244</v>
+        <v>-4.971374034881592</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0484110713005065</v>
+        <v>-1.526399493217468</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.1269072592258453</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4891503453254699</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1519527286291122</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.0516181141138076</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4092797040939331</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1918116807937622</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.0490219369530677</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.1739438772201538</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2171625941991806</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.0340557359158992</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.152105450630188</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2504547536373138</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.016951510682702</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2273945808410644</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3982841372489929</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0387899428606033</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.08124507963657369</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1327104717493057</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.0487165041267871</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.0951422601938247</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.1156062483787536</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0276416521519422</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0578794814646244</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0484110713005065</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>0.001527163083665</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B29" t="n">
         <v>0.0532979927957057</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C29" t="n">
         <v>0.061391957104206</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.008399397134780801</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.1032362282276153</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.090866208076477</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0235183127224445</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0720821022987365</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0161879286170005</v>
       </c>
     </row>
   </sheetData>
